--- a/Gantt project planner1.xlsx
+++ b/Gantt project planner1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B2054-732D-41B1-B68A-9A5DFAC4F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B694D9-A3FD-4AE4-BEDA-F84FB5E5A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
+    <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -646,11 +646,8 @@
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -659,7 +656,10 @@
     <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1050,20 +1050,22 @@
   </sheetPr>
   <dimension ref="B1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="45.375" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="16" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1075,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="30" t="s">
@@ -1131,7 +1133,7 @@
       <c r="AO2" s="24"/>
       <c r="AP2" s="24"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1175,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1361,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>34</v>
       </c>
@@ -1378,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="G5" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>41</v>
       </c>
@@ -1398,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
@@ -1415,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -1432,16 +1434,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
         <v>31</v>
       </c>
@@ -1458,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>40</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
         <v>7</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="6" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D32" s="7"/>
     </row>
   </sheetData>

--- a/Gantt project planner1.xlsx
+++ b/Gantt project planner1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B694D9-A3FD-4AE4-BEDA-F84FB5E5A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D44156-22EC-4601-BA3C-148F39A6D506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -646,8 +646,11 @@
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
@@ -656,10 +659,7 @@
     <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1051,21 +1051,21 @@
   <dimension ref="B1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="16" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="16" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="2.77734375" style="1"/>
+    <col min="25" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="AO2" s="24"/>
       <c r="AP2" s="24"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1363,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>34</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>41</v>
       </c>
@@ -1394,16 +1394,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -1440,10 +1440,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>31</v>
       </c>
@@ -1457,13 +1457,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>33</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>35</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>40</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>9</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="7"/>
     </row>
   </sheetData>

--- a/Gantt project planner1.xlsx
+++ b/Gantt project planner1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D44156-22EC-4601-BA3C-148F39A6D506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504774F1-B41A-423C-A47B-133F70033FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="B1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="30" t="s">
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,16 +1511,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <v>7</v>
       </c>
       <c r="F12" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,19 +1528,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
         <v>2</v>
       </c>
       <c r="E13" s="7">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7">
         <v>7</v>
       </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,19 +1548,19 @@
         <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
         <v>3</v>
       </c>
       <c r="E15" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>39</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
       </c>
       <c r="E17" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7">
         <v>2</v>

--- a/Gantt project planner1.xlsx
+++ b/Gantt project planner1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504774F1-B41A-423C-A47B-133F70033FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58AA56-538A-44B9-A226-F76C8F81A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="B1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="30" t="s">
@@ -1397,10 +1397,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,10 +1537,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>39</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1608,13 +1608,13 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
       </c>
       <c r="E17" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7">
         <v>2</v>

--- a/Gantt project planner1.xlsx
+++ b/Gantt project planner1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58AA56-538A-44B9-A226-F76C8F81A795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D753099-1FAB-4770-82F3-5A03E8623CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>ACTIVITY</t>
   </si>
   <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
     <t>Activity 14</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Revisión de nuevos proyectos</t>
+  </si>
+  <si>
+    <t>Unión de Redes</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="B1:BO32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1077,21 +1077,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="14">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1099,21 +1099,21 @@
       <c r="O2" s="32"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="17"/>
       <c r="V2" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="34"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
@@ -1123,7 +1123,7 @@
       <c r="AG2" s="34"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
@@ -1138,19 +1138,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>1</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>8</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
         <v>18</v>
@@ -1574,18 +1574,18 @@
         <v>6</v>
       </c>
       <c r="E15" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7">
         <v>6</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
         <v>18</v>
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7">
         <v>4</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>22</v>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7">
         <v>2</v>
@@ -1625,27 +1625,27 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
